--- a/TODatabase/MachUp F-16 Dimensions.xlsx
+++ b/TODatabase/MachUp F-16 Dimensions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\F-16-Aero-Database\TODatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F5FF6C-1A77-48E4-917A-7C09AAC9F546}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859ABCDF-8BD4-4508-9E66-E0CC40625C6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20475" yWindow="1440" windowWidth="14400" windowHeight="11745" activeTab="3" xr2:uid="{3E8F2039-709E-449F-8242-523A09CEFF71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E8F2039-709E-449F-8242-523A09CEFF71}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="71">
   <si>
     <t>Fox</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>NACA 0004</t>
+  </si>
+  <si>
+    <t>Differential Deflection Limits, deg</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>Aileron Deflection Limits, deg</t>
+  </si>
+  <si>
+    <t>Differential Mixing Coefficient</t>
   </si>
 </sst>
 </file>
@@ -665,7 +677,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +766,8 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>26.94</v>
+        <f>B4/C4*C6</f>
+        <v>26.941600000000005</v>
       </c>
       <c r="C6" s="5">
         <v>5.95</v>
@@ -798,7 +811,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +873,7 @@
       </c>
       <c r="B4" s="12">
         <f>General!B6-'Main Wing'!B3</f>
-        <v>4.8659999999999997</v>
+        <v>4.867600000000003</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>13</v>
@@ -1276,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA379603-7BA0-4D9A-95EF-34A9C14C4734}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1352,7 @@
       </c>
       <c r="B4" s="12">
         <f>General!B6-'Horizontal Tail'!B3</f>
-        <v>-12.940360000000002</v>
+        <v>-12.938759999999998</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>13</v>
@@ -1795,12 +1808,38 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="12">
+        <v>5.375</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="12">
+        <f>B35/B36</f>
+        <v>0.25</v>
+      </c>
       <c r="E37"/>
       <c r="F37"/>
     </row>
@@ -1844,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5CE82D-4DDD-45B9-B0D1-292FAA56D14E}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1946,7 @@
       </c>
       <c r="B4" s="12">
         <f>General!B6-'Vertical Tail'!B3</f>
-        <v>-11.128686328443354</v>
+        <v>-11.127086328443351</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>13</v>
@@ -1958,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2076,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,7 +2203,7 @@
         <v>2.34</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,7 +2248,7 @@
         <v>2.02</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,7 +2263,7 @@
         <v>0.65</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,7 +2278,7 @@
         <v>1.17</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,7 +2293,7 @@
         <v>0.35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">

--- a/TODatabase/MachUp F-16 Dimensions.xlsx
+++ b/TODatabase/MachUp F-16 Dimensions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\F-16-Aero-Database\TODatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859ABCDF-8BD4-4508-9E66-E0CC40625C6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8873F1C3-0809-40D1-96E5-0083DCA3A90A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3E8F2039-709E-449F-8242-523A09CEFF71}"/>
+    <workbookView xWindow="21210" yWindow="3975" windowWidth="14400" windowHeight="11745" activeTab="1" xr2:uid="{3E8F2039-709E-449F-8242-523A09CEFF71}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="83">
   <si>
     <t>Fox</t>
   </si>
@@ -250,6 +250,42 @@
   </si>
   <si>
     <t>Differential Mixing Coefficient</t>
+  </si>
+  <si>
+    <t>Reference Length, ft</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>ft to m</t>
+  </si>
+  <si>
+    <t>m to ft</t>
+  </si>
+  <si>
+    <t>Lockheed</t>
+  </si>
+  <si>
+    <t>Measured (Lockheed)</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Measured(Manual)</t>
+  </si>
+  <si>
+    <t>Horizontal Tail Span (Reference Lat), ft</t>
+  </si>
+  <si>
+    <t>Mean Aerodynamic Chord (Reference Long), ft</t>
+  </si>
+  <si>
+    <t>Diff (Fox)</t>
+  </si>
+  <si>
+    <t>Diff (Lockheed)</t>
   </si>
 </sst>
 </file>
@@ -320,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,6 +396,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A92E2A-D30F-43EF-A94C-834989349B33}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,9 +726,17 @@
     <col min="2" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,8 +752,38 @@
       <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -718,8 +796,34 @@
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="5">
+        <f>5*B16</f>
+        <v>16.404199999999999</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="5">
+        <f>49+5.2/12</f>
+        <v>49.43333333333333</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>9.61</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -732,8 +836,21 @@
       <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <f>P2/Q2*Q3 - 22.2/12</f>
+        <v>27.727696843565727</v>
+      </c>
+      <c r="Q3">
+        <v>5.75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -746,8 +863,21 @@
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4">
+        <f>18+4.2/12</f>
+        <v>18.350000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>3.5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -760,8 +890,21 @@
       <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="12">
+        <f>135.84/12</f>
+        <v>11.32</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -776,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -791,15 +934,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <f>1/B16</f>
+        <v>0.30479999024640031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>3.28084</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -808,10 +963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29BCD00-6B66-4330-AB34-9A8ADBDB78E3}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,9 +975,17 @@
     <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -836,8 +999,38 @@
         <v>2</v>
       </c>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -851,8 +1044,35 @@
       <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="5"/>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="12">
+        <f>$N$30/$O$30*O2</f>
+        <v>18.101566820276499</v>
+      </c>
+      <c r="O2" s="14">
+        <v>3.47</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="16">
+        <f>N2-B2</f>
+        <v>8.0126820276497313E-2</v>
+      </c>
+      <c r="R2" s="16">
+        <f>N2-H2</f>
+        <v>18.101566820276499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -866,8 +1086,33 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="12">
+        <f>N2+N12/4</f>
+        <v>22.174900153609833</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="16">
+        <f t="shared" ref="Q3:Q30" si="0">N3-B3</f>
+        <v>0.10090015360983173</v>
+      </c>
+      <c r="R3" s="16">
+        <f t="shared" ref="R3:R30" si="1">N3-H3</f>
+        <v>22.174900153609833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -881,8 +1126,33 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="5"/>
+      <c r="M4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="12">
+        <f>General!P3-'Main Wing'!N3</f>
+        <v>5.552796689955894</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.685196689955891</v>
+      </c>
+      <c r="R4" s="16">
+        <f t="shared" si="1"/>
+        <v>5.552796689955894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -895,8 +1165,32 @@
       <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="5"/>
+      <c r="M5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="12">
+        <v>300</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -909,8 +1203,39 @@
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12">
+        <f>General!$I$2/General!$J$2*'Main Wing'!I6</f>
+        <v>30.621173333333335</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3.64</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="12">
+        <v>30</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.62117333333333491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -924,8 +1249,39 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="12">
+        <f>General!$I$2/General!$J$2*'Main Wing'!I7</f>
+        <v>15.39471076923077</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1.83</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12">
+        <v>15</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.39471076923076964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -938,8 +1294,32 @@
       <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="5"/>
+      <c r="M8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -952,8 +1332,33 @@
       <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="5"/>
+      <c r="M9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="12">
+        <f>40</f>
+        <v>40</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -966,8 +1371,33 @@
       <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="5"/>
+      <c r="M10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="12">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
@@ -981,8 +1411,33 @@
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="5"/>
+      <c r="M11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="12">
+        <f>ATAN((3*N12/4 -3*N13/4)/N7)*180/PI()</f>
+        <v>32.193834354237858</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.1423073350513846</v>
+      </c>
+      <c r="R11" s="16">
+        <f t="shared" si="1"/>
+        <v>32.193834354237858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -996,8 +1451,38 @@
       <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="12">
+        <f>General!$I$2/General!$J$2*'Main Wing'!I12</f>
+        <v>16.404199999999999</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="M12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="12">
+        <f>195.52/12</f>
+        <v>16.293333333333333</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="0"/>
+        <v>8.3093333333330577E-2</v>
+      </c>
+      <c r="R12" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.11086666666666645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1011,8 +1496,38 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="12">
+        <f>General!$I$2/General!$J$2*'Main Wing'!I13</f>
+        <v>3.7855846153846153</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="12">
+        <f>44.42/12</f>
+        <v>3.7016666666666667</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3837066666666065E-2</v>
+      </c>
+      <c r="R13" s="16">
+        <f t="shared" si="1"/>
+        <v>-8.3917948717948665E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1025,8 +1540,32 @@
       <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="5"/>
+      <c r="M14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -1039,8 +1578,26 @@
       <c r="D15" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="5"/>
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1054,8 +1611,35 @@
       <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="5"/>
+      <c r="M16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="12">
+        <f>General!$P$4/General!$Q$4*'Main Wing'!O16</f>
+        <v>3.5127142857142859</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="16">
+        <f t="shared" si="0"/>
+        <v>2.6154285714285574E-2</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="1"/>
+        <v>3.5127142857142859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1069,8 +1653,35 @@
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="5"/>
+      <c r="M17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="12">
+        <f>General!$P$4/General!$Q$4*'Main Wing'!O17</f>
+        <v>11.639142857142858</v>
+      </c>
+      <c r="O17" s="14">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.50026285714285734</v>
+      </c>
+      <c r="R17" s="16">
+        <f t="shared" si="1"/>
+        <v>11.639142857142858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -1084,8 +1695,33 @@
       <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="5"/>
+      <c r="M18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="12">
+        <f>N16/N7</f>
+        <v>0.23418095238095241</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7436190476190494E-3</v>
+      </c>
+      <c r="R18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.23418095238095241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -1099,8 +1735,33 @@
       <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="5"/>
+      <c r="M19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="12">
+        <f>N17/N7</f>
+        <v>0.77594285714285716</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="16">
+        <f t="shared" si="0"/>
+        <v>3.3350857142857127E-2</v>
+      </c>
+      <c r="R19" s="16">
+        <f t="shared" si="1"/>
+        <v>0.77594285714285716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
@@ -1114,8 +1775,35 @@
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="5"/>
+      <c r="M20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="12">
+        <f>N30/O30*O20</f>
+        <v>13.145806451612904</v>
+      </c>
+      <c r="O20" s="14">
+        <v>2.52</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.12123354838709766</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="1"/>
+        <v>13.145806451612904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>57</v>
       </c>
@@ -1129,8 +1817,33 @@
       <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="5"/>
+      <c r="M21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="12">
+        <f>30.63/12</f>
+        <v>2.5524999999999998</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.30014000000000074</v>
+      </c>
+      <c r="R21" s="16">
+        <f t="shared" si="1"/>
+        <v>2.5524999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
@@ -1144,8 +1857,35 @@
       <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="5"/>
+      <c r="M22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N22" s="12">
+        <f>N30/O30*O22</f>
+        <v>6.4164055299539173</v>
+      </c>
+      <c r="O22" s="14">
+        <v>1.23</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.23975447004608341</v>
+      </c>
+      <c r="R22" s="16">
+        <f t="shared" si="1"/>
+        <v>6.4164055299539173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>59</v>
       </c>
@@ -1159,8 +1899,33 @@
       <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="5"/>
+      <c r="M23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="12">
+        <f>15.16/12</f>
+        <v>1.2633333333333334</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.18562666666666683</v>
+      </c>
+      <c r="R23" s="16">
+        <f t="shared" si="1"/>
+        <v>1.2633333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
@@ -1174,8 +1939,33 @@
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="5"/>
+      <c r="M24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="12">
+        <f>N21/N20</f>
+        <v>0.19416838437377304</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.0848680472643349E-2</v>
+      </c>
+      <c r="R24" s="16">
+        <f t="shared" si="1"/>
+        <v>0.19416838437377304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -1189,8 +1979,33 @@
       <c r="D25" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="5"/>
+      <c r="M25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="12">
+        <f>N23/N22</f>
+        <v>0.19689112968868205</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.0795945141249939E-2</v>
+      </c>
+      <c r="R25" s="16">
+        <f t="shared" si="1"/>
+        <v>0.19689112968868205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1203,8 +2018,32 @@
       <c r="D26" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="5"/>
+      <c r="M26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1217,8 +2056,33 @@
       <c r="D27" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="5"/>
+      <c r="M27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="12">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1231,8 +2095,33 @@
       <c r="D28" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="5"/>
+      <c r="M28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="12">
+        <f>N13/N12</f>
+        <v>0.22718903436988544</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="16">
+        <f t="shared" si="0"/>
+        <v>-3.1096563011456801E-4</v>
+      </c>
+      <c r="R28" s="16">
+        <f t="shared" si="1"/>
+        <v>0.22718903436988544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1246,8 +2135,33 @@
       <c r="D29" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="5"/>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="12">
+        <f>N5/N6</f>
+        <v>10</v>
+      </c>
+      <c r="O29" s="14"/>
+      <c r="P29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>4</v>
       </c>
@@ -1259,6 +2173,33 @@
       </c>
       <c r="D30" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="5"/>
+      <c r="M30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="12">
+        <f>135.84/12</f>
+        <v>11.32</v>
+      </c>
+      <c r="O30" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <f t="shared" si="1"/>
+        <v>11.32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -1289,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA379603-7BA0-4D9A-95EF-34A9C14C4734}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
